--- a/SportLogic.xlsx
+++ b/SportLogic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunaa\Documents\Kunaal Gupta\SportLogic Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5573ACBE-1127-47CB-8F9F-93F5571E22ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BDFDE1-8376-4004-A779-C9A98F67A344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2A8EDB76-034A-4006-93D4-9F28AB89F2EF}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Queries" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -253,13 +252,6 @@
     <t>Look back at the columns you were asked to create, along with the columns already provided in the event dataset, what would lead to dangerous shot attempts?</t>
   </si>
   <si>
-    <t>Summing up the the goal value of all the players in both the teams</t>
-  </si>
-  <si>
-    <t>xGB = ΣxG(Team A) - ΣxG(Team B)
-where ΣxG(Team A) is the sum of expected goals for all shots taken by Team A during the game, and ΣxG(Team B) is the sum of expected goals for all shots taken by Team B during the game.</t>
-  </si>
-  <si>
     <t>xG can provide insights into how well each team performed during a game, as it takes into account the number and quality of shots taken by each team.
 1. If a team has a high xG value, it means that they generated a large number of high-quality scoring opportunities, which indicates that they played well offensively. Conversely, if a team has a low xG value, it suggests that they had fewer high-quality scoring chances, which may indicate that they had a weaker offensive performance.
 2. On the defensive end, if a team allows a low xG value, it indicates that they did a good job of limiting their opponent's scoring opportunities, while a high xG allowed indicates that they gave up a lot of high-quality chances, which suggests a weaker defensive performance.</t>
@@ -272,6 +264,13 @@
   </si>
   <si>
     <t>Scatter plot with (x, y) cordinates against goal (yes/no)</t>
+  </si>
+  <si>
+    <t>Summing up the the goal value of all the players in both the teams, and returning the one with highest num of goals</t>
+  </si>
+  <si>
+    <t>The formula for calculating team xG based on the xG values for individual shots is:
+xG_team = sum(xG_shot) / total_shots</t>
   </si>
 </sst>
 </file>
@@ -511,22 +510,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,7 +1200,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,7 +1226,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1237,11 +1236,11 @@
         <v>52</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
       <c r="B3" s="16" t="s">
         <v>49</v>
       </c>
@@ -1249,11 +1248,11 @@
         <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="16" t="s">
         <v>50</v>
       </c>
@@ -1261,17 +1260,17 @@
         <v>54</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1281,11 +1280,11 @@
         <v>55</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="16" t="s">
         <v>49</v>
       </c>
@@ -1293,14 +1292,14 @@
         <v>56</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1315,13 +1314,13 @@
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="25">
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1331,11 +1330,11 @@
         <v>58</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="16" t="s">
         <v>49</v>
       </c>
@@ -1345,13 +1344,13 @@
       <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="25">
         <v>5</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1363,7 +1362,7 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="16" t="s">
         <v>49</v>
       </c>
@@ -1373,13 +1372,13 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="25">
         <v>6</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1391,7 +1390,7 @@
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="16" t="s">
         <v>68</v>
       </c>
@@ -1401,13 +1400,13 @@
       <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="25">
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -1419,7 +1418,7 @@
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="16" t="s">
         <v>49</v>
       </c>
@@ -1429,13 +1428,13 @@
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="25">
         <v>8</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -1447,7 +1446,7 @@
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="16" t="s">
         <v>49</v>
       </c>
@@ -1457,7 +1456,7 @@
       <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="16" t="s">
         <v>68</v>
       </c>
@@ -1468,6 +1467,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A23:A25"/>
@@ -1477,11 +1481,6 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
